--- a/biology/Zoologie/Bécasseau/Bécasseau.xlsx
+++ b/biology/Zoologie/Bécasseau/Bécasseau.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>B%C3%A9casseau</t>
+          <t>Bécasseau</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Bécasseau (dérivé de bécasse, avec le suffixe -eau formant un diminutif qui indique un oiseau de taille inférieure à la bécasse des bois)[1]. est le nom que la nomenclature aviaire en langue française (mise à jour) donne à 22 espèces d'oiseaux qui constituent 5 (ou 6) genres : Aphriza, Calidris, Eurynorhynchus, Limicola, Micropalama (désormais inclus dans Calidris) et Tryngites, de la famille des Scolopacidae (ordre des Charadriiformes).
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Bécasseau (dérivé de bécasse, avec le suffixe -eau formant un diminutif qui indique un oiseau de taille inférieure à la bécasse des bois). est le nom que la nomenclature aviaire en langue française (mise à jour) donne à 22 espèces d'oiseaux qui constituent 5 (ou 6) genres : Aphriza, Calidris, Eurynorhynchus, Limicola, Micropalama (désormais inclus dans Calidris) et Tryngites, de la famille des Scolopacidae (ordre des Charadriiformes).
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>B%C3%A9casseau</t>
+          <t>Bécasseau</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Bécasseau à col roux - Calidris ruficollis - Red-necked Stint
 Bécasseau à croupion blanc - Calidris fuscicollis - White-rumped Sandpiper
